--- a/2020_docs/05_製造/パッケージ構成.xlsx
+++ b/2020_docs/05_製造/パッケージ構成.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\masudakento\DEV_HI\apps\eclipse\workspaces_eclipse\account-book-2020-docs\05_製造\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\masudakento\git\portfolio2023\2020_docs\05_製造\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3989739-4F78-409D-965B-D508427DBB0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF30C6E6-2D4C-46C5-B329-19EF9F74A0F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="2205" windowWidth="23130" windowHeight="13650" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2723" yWindow="2813" windowWidth="23130" windowHeight="13650" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="3" r:id="rId1"/>
@@ -1861,7 +1861,7 @@
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="L28" sqref="L28"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.71875" defaultRowHeight="19.899999999999999" outlineLevelCol="1" x14ac:dyDescent="0.8"/>
@@ -2887,9 +2887,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:L218"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="19.899999999999999" x14ac:dyDescent="0.8"/>
   <sheetData>
@@ -3666,7 +3664,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.71875" defaultRowHeight="19.899999999999999" outlineLevelCol="1" x14ac:dyDescent="0.8"/>
   <cols>
@@ -3853,9 +3853,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="C1:C36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.899999999999999" x14ac:dyDescent="0.8"/>
   <cols>
@@ -4053,7 +4051,7 @@
     <sheetView topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="N25" sqref="N25"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.71875" defaultRowHeight="19.899999999999999" outlineLevelCol="1" x14ac:dyDescent="0.8"/>
